--- a/Enoch Gantt Chart.xlsx
+++ b/Enoch Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F2A861-8B0A-D745-9855-F7057C97D00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51A829A-DE61-7843-AA50-28CAFCA98DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -177,9 +177,6 @@
     <t>COMP 195- Senior Project</t>
   </si>
   <si>
-    <t>Phase 4- Troubleshooting and Debugging</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Phase 2</t>
   </si>
   <si>
-    <t>Phase 3</t>
-  </si>
-  <si>
     <t>Senior Project Day</t>
   </si>
   <si>
@@ -238,6 +232,15 @@
   </si>
   <si>
     <t>Error Management and Recovery Guide</t>
+  </si>
+  <si>
+    <t>Phase 3 - Freemode</t>
+  </si>
+  <si>
+    <t>Phase 4- Station to Station</t>
+  </si>
+  <si>
+    <t>0% - behind</t>
   </si>
 </sst>
 </file>
@@ -1670,9 +1673,9 @@
   </sheetPr>
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="98" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="113" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN24" sqref="AN24"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1695,7 @@
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
       <c r="B1" s="79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1715,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="85" t="s">
         <v>1</v>
@@ -1723,7 +1726,7 @@
       <c r="D3" s="86"/>
       <c r="E3" s="91">
         <f ca="1">TODAY()</f>
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="F3" s="91"/>
     </row>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="I4" s="88">
         <f ca="1">I5</f>
-        <v>44620</v>
+        <v>44641</v>
       </c>
       <c r="J4" s="89"/>
       <c r="K4" s="89"/>
@@ -1750,7 +1753,7 @@
       <c r="O4" s="90"/>
       <c r="P4" s="88">
         <f ca="1">P5</f>
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="Q4" s="89"/>
       <c r="R4" s="89"/>
@@ -1760,7 +1763,7 @@
       <c r="V4" s="90"/>
       <c r="W4" s="88">
         <f ca="1">W5</f>
-        <v>44634</v>
+        <v>44655</v>
       </c>
       <c r="X4" s="89"/>
       <c r="Y4" s="89"/>
@@ -1770,7 +1773,7 @@
       <c r="AC4" s="90"/>
       <c r="AD4" s="88">
         <f ca="1">AD5</f>
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
@@ -1780,7 +1783,7 @@
       <c r="AJ4" s="90"/>
       <c r="AK4" s="88">
         <f ca="1">AK5</f>
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="AL4" s="89"/>
       <c r="AM4" s="89"/>
@@ -1790,7 +1793,7 @@
       <c r="AQ4" s="90"/>
       <c r="AR4" s="88">
         <f ca="1">AR5</f>
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="AS4" s="89"/>
       <c r="AT4" s="89"/>
@@ -1800,7 +1803,7 @@
       <c r="AX4" s="90"/>
       <c r="AY4" s="88">
         <f ca="1">AY5</f>
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="AZ4" s="89"/>
       <c r="BA4" s="89"/>
@@ -1810,7 +1813,7 @@
       <c r="BE4" s="90"/>
       <c r="BF4" s="88">
         <f ca="1">BF5</f>
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="BG4" s="89"/>
       <c r="BH4" s="89"/>
@@ -1831,227 +1834,227 @@
       <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44620</v>
+        <v>44641</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44621</v>
+        <v>44642</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44644</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44645</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44646</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44647</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44629</v>
+        <v>44650</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44651</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44653</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44654</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44634</v>
+        <v>44655</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44657</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44659</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44660</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44661</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44642</v>
+        <v>44663</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44665</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44666</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44667</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44668</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>44649</v>
+        <v>44670</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44672</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44673</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44674</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44675</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44678</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44680</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44660</v>
+        <v>44681</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>44663</v>
+        <v>44684</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44665</v>
+        <v>44686</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44667</v>
+        <v>44688</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>44670</v>
+        <v>44691</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44671</v>
+        <v>44692</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44672</v>
+        <v>44693</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>44675</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2377,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="19"/>
@@ -2447,10 +2450,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2522,13 +2525,13 @@
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="63"/>
@@ -2594,13 +2597,13 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
@@ -2666,13 +2669,13 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
@@ -2738,13 +2741,13 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
@@ -2812,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="70"/>
       <c r="D14" s="24"/>
@@ -2883,10 +2886,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="27">
         <v>0</v>
@@ -2958,10 +2961,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="27">
         <v>0</v>
@@ -3030,10 +3033,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="27">
         <v>0</v>
@@ -3107,7 +3110,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="29"/>
@@ -3178,10 +3181,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="32">
         <v>0</v>
@@ -3252,11 +3255,11 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="83" t="s">
-        <v>48</v>
+      <c r="B20" s="83">
+        <v>9</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="32">
         <v>0</v>
@@ -3325,10 +3328,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="32">
         <v>0</v>
@@ -3399,7 +3402,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="34"/>
@@ -3470,10 +3473,10 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="37">
         <v>0</v>
@@ -3545,10 +3548,10 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
       <c r="B24" s="84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="37">
         <v>0</v>
@@ -3617,10 +3620,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="37">
         <v>0</v>
@@ -3689,10 +3692,10 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="37">
         <v>0</v>
@@ -3761,20 +3764,20 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="37">
         <v>0</v>
       </c>
       <c r="E27" s="66">
-        <v>44317</v>
+        <v>44323</v>
       </c>
       <c r="F27" s="66">
         <f>E27+1</f>
-        <v>44318</v>
+        <v>44324</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17">

--- a/Enoch Gantt Chart.xlsx
+++ b/Enoch Gantt Chart.xlsx
@@ -7,18 +7,18 @@
     <sheet state="visible" name="About" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName localSheetId="0" name="task_start">ProjectSchedule!$E$1</definedName>
     <definedName localSheetId="0" name="task_progress">ProjectSchedule!$D$1</definedName>
+    <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
+    <definedName localSheetId="0" name="task_end">ProjectSchedule!$F$1</definedName>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
-    <definedName localSheetId="0" name="task_end">ProjectSchedule!$F$1</definedName>
-    <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
-    <definedName localSheetId="0" name="task_start">ProjectSchedule!$E$1</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Enoch</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Controller: Basic Wiriing Diagram </t>
   </si>
   <si>
-    <t>0% - behind</t>
-  </si>
-  <si>
     <t>Controller: Physical Assembly</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Phase 4- Station to Station</t>
+  </si>
+  <si>
+    <t>FEATURE SHELVED after talk with Professor Caniff</t>
   </si>
   <si>
     <t>Establish Station to Station Controls with controller</t>
@@ -392,7 +392,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +473,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE5DFEC"/>
         <bgColor rgb="FFE5DFEC"/>
       </patternFill>
@@ -490,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border/>
     <border>
       <right style="thin">
@@ -646,11 +652,29 @@
         <color rgb="FFD9D9D9"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <top style="medium">
+        <color rgb="FFD8D8D8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD8D8D8"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD8D8D8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD8D8D8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -752,14 +776,11 @@
     <xf borderId="15" fillId="5" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="5" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="17" fillId="6" fontId="16" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,16 +801,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="8" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="9" fontId="16" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="8" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
@@ -812,8 +833,14 @@
     <xf borderId="15" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="11" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="15" fillId="11" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="11" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="12" fontId="16" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,31 +848,27 @@
     <xf borderId="15" fillId="13" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="13" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="15" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="15" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="13" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="15" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="14" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="14" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="15" fontId="16" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="16" fontId="16" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -857,25 +880,25 @@
     <xf borderId="16" fillId="0" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="17" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="17" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="17" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="17" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="17" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="16" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="17" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="16" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="17" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2037,16 +2060,18 @@
       <c r="C10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>23</v>
+      <c r="D10" s="39">
+        <v>1.0</v>
       </c>
       <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="41">
+        <v>44687.0</v>
+      </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -2104,7 +2129,7 @@
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>21</v>
@@ -2123,9 +2148,9 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
@@ -2180,16 +2205,18 @@
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>23</v>
+      <c r="D12" s="39">
+        <v>1.0</v>
       </c>
       <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="41">
+        <v>44687.0</v>
+      </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="31"/>
@@ -2197,9 +2224,9 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
@@ -2251,8 +2278,8 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="42" t="s">
-        <v>26</v>
+      <c r="B13" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>21</v>
@@ -2263,19 +2290,19 @@
       <c r="E13" s="40">
         <v>44634.0</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="40">
         <v>44668.0</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
@@ -2327,15 +2354,15 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -2400,19 +2427,19 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>1.0</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <v>44654.0</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>44666.0</v>
       </c>
       <c r="G15" s="36"/>
@@ -2428,10 +2455,10 @@
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
       <c r="U15" s="31"/>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
@@ -2479,17 +2506,19 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="D16" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="52">
+        <v>44687.0</v>
+      </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="31"/>
@@ -2502,9 +2531,9 @@
       <c r="P16" s="31"/>
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
@@ -2551,19 +2580,19 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="49">
         <v>1.0</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <v>44667.0</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>44668.0</v>
       </c>
       <c r="G17" s="36"/>
@@ -2583,10 +2612,10 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
       <c r="AA17" s="31"/>
@@ -2630,15 +2659,15 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -2703,17 +2732,19 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>23</v>
+      <c r="D19" s="60">
+        <v>1.0</v>
       </c>
       <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="F19" s="62">
+        <v>44687.0</v>
+      </c>
       <c r="G19" s="36"/>
       <c r="H19" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -2778,17 +2809,19 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="60" t="s">
-        <v>23</v>
+      <c r="D20" s="60">
+        <v>1.0</v>
       </c>
       <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="F20" s="62">
+        <v>44687.0</v>
+      </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="31"/>
@@ -2814,9 +2847,9 @@
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
@@ -2850,17 +2883,19 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>23</v>
+      <c r="D21" s="60">
+        <v>1.0</v>
       </c>
       <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="F21" s="62">
+        <v>44687.0</v>
+      </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="31"/>
@@ -2889,11 +2924,11 @@
       <c r="AF21" s="31"/>
       <c r="AG21" s="31"/>
       <c r="AH21" s="31"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="31"/>
       <c r="AO21" s="31"/>
       <c r="AP21" s="31"/>
@@ -2922,15 +2957,17 @@
     </row>
     <row r="22" ht="30.0" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -2995,17 +3032,17 @@
     </row>
     <row r="23" ht="30.0" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="D23" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -3042,13 +3079,13 @@
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
       <c r="AM23" s="31"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="70"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
       <c r="AU23" s="31"/>
       <c r="AV23" s="31"/>
       <c r="AW23" s="31"/>
@@ -3070,17 +3107,17 @@
     </row>
     <row r="24" ht="30.0" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="D24" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="31"/>
@@ -3121,9 +3158,9 @@
       <c r="AR24" s="31"/>
       <c r="AS24" s="31"/>
       <c r="AT24" s="31"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="70"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="71"/>
+      <c r="AW24" s="71"/>
       <c r="AX24" s="31"/>
       <c r="AY24" s="31"/>
       <c r="AZ24" s="31"/>
@@ -3142,17 +3179,17 @@
     </row>
     <row r="25" ht="30.0" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
+      <c r="D25" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="31"/>
@@ -3196,13 +3233,13 @@
       <c r="AU25" s="31"/>
       <c r="AV25" s="31"/>
       <c r="AW25" s="31"/>
-      <c r="AX25" s="70"/>
-      <c r="AY25" s="70"/>
-      <c r="AZ25" s="70"/>
-      <c r="BA25" s="70"/>
-      <c r="BB25" s="70"/>
-      <c r="BC25" s="70"/>
-      <c r="BD25" s="70"/>
+      <c r="AX25" s="71"/>
+      <c r="AY25" s="71"/>
+      <c r="AZ25" s="71"/>
+      <c r="BA25" s="71"/>
+      <c r="BB25" s="71"/>
+      <c r="BC25" s="71"/>
+      <c r="BD25" s="71"/>
       <c r="BE25" s="31"/>
       <c r="BF25" s="31"/>
       <c r="BG25" s="31"/>
@@ -3214,17 +3251,17 @@
     </row>
     <row r="26" ht="30.0" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="72">
         <v>0.0</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="31"/>
@@ -3275,33 +3312,28 @@
       <c r="BB26" s="31"/>
       <c r="BC26" s="31"/>
       <c r="BD26" s="31"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="70"/>
-      <c r="BG26" s="70"/>
-      <c r="BH26" s="70"/>
-      <c r="BI26" s="72"/>
-      <c r="BJ26" s="72"/>
-      <c r="BK26" s="72"/>
-      <c r="BL26" s="72"/>
+      <c r="BE26" s="71"/>
+      <c r="BF26" s="71"/>
+      <c r="BG26" s="71"/>
+      <c r="BH26" s="71"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="73"/>
+      <c r="BL26" s="73"/>
     </row>
     <row r="27" ht="30.0" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="72">
         <v>0.0</v>
       </c>
-      <c r="E27" s="70">
-        <v>44323.0</v>
-      </c>
-      <c r="F27" s="70">
-        <f>E27+1</f>
-        <v>44324</v>
-      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -3368,11 +3400,11 @@
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="73"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
@@ -3439,89 +3471,89 @@
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81" t="str">
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82" t="str">
         <f>IF(OR(ISBLANK(ProjectSchedule!task_start),ISBLANK(ProjectSchedule!task_end)),"",ProjectSchedule!task_end-ProjectSchedule!task_start+1)</f>
         <v/>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="82"/>
-      <c r="BD29" s="82"/>
-      <c r="BE29" s="82"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="82"/>
-      <c r="BH29" s="82"/>
-      <c r="BI29" s="82"/>
-      <c r="BJ29" s="82"/>
-      <c r="BK29" s="82"/>
-      <c r="BL29" s="82"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="83"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="83"/>
+      <c r="BE29" s="83"/>
+      <c r="BF29" s="83"/>
+      <c r="BG29" s="83"/>
+      <c r="BH29" s="83"/>
+      <c r="BI29" s="83"/>
+      <c r="BJ29" s="83"/>
+      <c r="BK29" s="83"/>
+      <c r="BL29" s="83"/>
     </row>
     <row r="30" ht="30.0" customHeight="1">
       <c r="A30" s="8"/>
       <c r="E30" s="10"/>
-      <c r="G30" s="83"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="8"/>
       <c r="C31" s="7"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="84"/>
+      <c r="F31" s="85"/>
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="C32" s="85"/>
+      <c r="C32" s="86"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" ht="30.0" customHeight="1">
@@ -5084,14 +5116,15 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
@@ -5150,7 +5183,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1">
-      <c r="A1" s="86"/>
+      <c r="A1" s="87"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5173,82 +5206,82 @@
       <c r="U1" s="4"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
     </row>
     <row r="3" ht="27.0" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
     </row>
     <row r="5" ht="73.5" customHeight="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="4"/>
@@ -5273,7 +5306,7 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" ht="26.25" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="4"/>
@@ -5298,57 +5331,57 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" ht="204.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="96" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="4"/>
@@ -5373,57 +5406,57 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" ht="27.75" customHeight="1">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="96" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="4"/>
@@ -5448,57 +5481,57 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" ht="27.75" customHeight="1">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
     </row>
     <row r="15" ht="75.0" customHeight="1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="96" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="4"/>
@@ -5523,7 +5556,7 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="96" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="4"/>
@@ -5548,7 +5581,7 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5571,7 +5604,7 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="86"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5594,7 +5627,7 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5617,7 +5650,7 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="86"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5640,7 +5673,7 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="86"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5663,7 +5696,7 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="86"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -5686,7 +5719,7 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="86"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5709,7 +5742,7 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="86"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5732,7 +5765,7 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="86"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5755,7 +5788,7 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="86"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -5778,7 +5811,7 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="86"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5801,7 +5834,7 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="86"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5824,7 +5857,7 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="86"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5847,7 +5880,7 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="86"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -5870,7 +5903,7 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="86"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -5893,7 +5926,7 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="86"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -5916,7 +5949,7 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="86"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -5939,7 +5972,7 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="86"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -5962,7 +5995,7 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="86"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -5985,7 +6018,7 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="86"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -6008,7 +6041,7 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="86"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -6031,7 +6064,7 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="86"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -6054,7 +6087,7 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="86"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6077,7 +6110,7 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="86"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -6100,7 +6133,7 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="86"/>
+      <c r="A41" s="87"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6123,7 +6156,7 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="86"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -6146,7 +6179,7 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="86"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6169,7 +6202,7 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="86"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -6192,7 +6225,7 @@
       <c r="U44" s="4"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="86"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -6215,7 +6248,7 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="86"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -6238,7 +6271,7 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="86"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -6261,7 +6294,7 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -6284,7 +6317,7 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -6307,7 +6340,7 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -6330,7 +6363,7 @@
       <c r="U50" s="4"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -6353,7 +6386,7 @@
       <c r="U51" s="4"/>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -6376,7 +6409,7 @@
       <c r="U52" s="4"/>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -6399,7 +6432,7 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -6422,7 +6455,7 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6445,7 +6478,7 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -6468,7 +6501,7 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -6491,7 +6524,7 @@
       <c r="U57" s="4"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -6514,7 +6547,7 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -6537,7 +6570,7 @@
       <c r="U59" s="4"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -6560,7 +6593,7 @@
       <c r="U60" s="4"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -6583,7 +6616,7 @@
       <c r="U61" s="4"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="86"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6606,7 +6639,7 @@
       <c r="U62" s="4"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="86"/>
+      <c r="A63" s="87"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -6629,7 +6662,7 @@
       <c r="U63" s="4"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="86"/>
+      <c r="A64" s="87"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -6652,7 +6685,7 @@
       <c r="U64" s="4"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="86"/>
+      <c r="A65" s="87"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -6675,7 +6708,7 @@
       <c r="U65" s="4"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="86"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -6698,7 +6731,7 @@
       <c r="U66" s="4"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="86"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6721,7 +6754,7 @@
       <c r="U67" s="4"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="86"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -6744,7 +6777,7 @@
       <c r="U68" s="4"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="86"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6767,7 +6800,7 @@
       <c r="U69" s="4"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="86"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6790,7 +6823,7 @@
       <c r="U70" s="4"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="86"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6813,7 +6846,7 @@
       <c r="U71" s="4"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="86"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6836,7 +6869,7 @@
       <c r="U72" s="4"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="86"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6859,7 +6892,7 @@
       <c r="U73" s="4"/>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="86"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6882,7 +6915,7 @@
       <c r="U74" s="4"/>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="86"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6905,7 +6938,7 @@
       <c r="U75" s="4"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="86"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6928,7 +6961,7 @@
       <c r="U76" s="4"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="86"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6951,7 +6984,7 @@
       <c r="U77" s="4"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="86"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6974,7 +7007,7 @@
       <c r="U78" s="4"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="86"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6997,7 +7030,7 @@
       <c r="U79" s="4"/>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="86"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -7020,7 +7053,7 @@
       <c r="U80" s="4"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="86"/>
+      <c r="A81" s="87"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -7043,7 +7076,7 @@
       <c r="U81" s="4"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="86"/>
+      <c r="A82" s="87"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -7066,7 +7099,7 @@
       <c r="U82" s="4"/>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="86"/>
+      <c r="A83" s="87"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -7089,7 +7122,7 @@
       <c r="U83" s="4"/>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="86"/>
+      <c r="A84" s="87"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7112,7 +7145,7 @@
       <c r="U84" s="4"/>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="86"/>
+      <c r="A85" s="87"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -7135,7 +7168,7 @@
       <c r="U85" s="4"/>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="86"/>
+      <c r="A86" s="87"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -7158,7 +7191,7 @@
       <c r="U86" s="4"/>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="86"/>
+      <c r="A87" s="87"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -7181,7 +7214,7 @@
       <c r="U87" s="4"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="86"/>
+      <c r="A88" s="87"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7204,7 +7237,7 @@
       <c r="U88" s="4"/>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="86"/>
+      <c r="A89" s="87"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -7227,7 +7260,7 @@
       <c r="U89" s="4"/>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="86"/>
+      <c r="A90" s="87"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7250,7 +7283,7 @@
       <c r="U90" s="4"/>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="86"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -7273,7 +7306,7 @@
       <c r="U91" s="4"/>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="86"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -7296,7 +7329,7 @@
       <c r="U92" s="4"/>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="86"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -7319,7 +7352,7 @@
       <c r="U93" s="4"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="86"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -7342,7 +7375,7 @@
       <c r="U94" s="4"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="86"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -7365,7 +7398,7 @@
       <c r="U95" s="4"/>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="86"/>
+      <c r="A96" s="87"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -7388,7 +7421,7 @@
       <c r="U96" s="4"/>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="86"/>
+      <c r="A97" s="87"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -7411,7 +7444,7 @@
       <c r="U97" s="4"/>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="86"/>
+      <c r="A98" s="87"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -7434,7 +7467,7 @@
       <c r="U98" s="4"/>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="86"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7457,7 +7490,7 @@
       <c r="U99" s="4"/>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="86"/>
+      <c r="A100" s="87"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -7480,7 +7513,7 @@
       <c r="U100" s="4"/>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="86"/>
+      <c r="A101" s="87"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -7503,7 +7536,7 @@
       <c r="U101" s="4"/>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="86"/>
+      <c r="A102" s="87"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -7526,7 +7559,7 @@
       <c r="U102" s="4"/>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="86"/>
+      <c r="A103" s="87"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -7549,7 +7582,7 @@
       <c r="U103" s="4"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="86"/>
+      <c r="A104" s="87"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -7572,7 +7605,7 @@
       <c r="U104" s="4"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="86"/>
+      <c r="A105" s="87"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -7595,7 +7628,7 @@
       <c r="U105" s="4"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="86"/>
+      <c r="A106" s="87"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -7618,7 +7651,7 @@
       <c r="U106" s="4"/>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="86"/>
+      <c r="A107" s="87"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -7641,7 +7674,7 @@
       <c r="U107" s="4"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -7664,7 +7697,7 @@
       <c r="U108" s="4"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -7687,7 +7720,7 @@
       <c r="U109" s="4"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7710,7 +7743,7 @@
       <c r="U110" s="4"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7733,7 +7766,7 @@
       <c r="U111" s="4"/>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -7756,7 +7789,7 @@
       <c r="U112" s="4"/>
     </row>
     <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -7779,7 +7812,7 @@
       <c r="U113" s="4"/>
     </row>
     <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -7802,7 +7835,7 @@
       <c r="U114" s="4"/>
     </row>
     <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -7825,7 +7858,7 @@
       <c r="U115" s="4"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -7848,7 +7881,7 @@
       <c r="U116" s="4"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -7871,7 +7904,7 @@
       <c r="U117" s="4"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -7894,7 +7927,7 @@
       <c r="U118" s="4"/>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -7917,7 +7950,7 @@
       <c r="U119" s="4"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -7940,7 +7973,7 @@
       <c r="U120" s="4"/>
     </row>
     <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -7963,7 +7996,7 @@
       <c r="U121" s="4"/>
     </row>
     <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="86"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -7986,7 +8019,7 @@
       <c r="U122" s="4"/>
     </row>
     <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="86"/>
+      <c r="A123" s="87"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -8009,7 +8042,7 @@
       <c r="U123" s="4"/>
     </row>
     <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="86"/>
+      <c r="A124" s="87"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -8032,7 +8065,7 @@
       <c r="U124" s="4"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="86"/>
+      <c r="A125" s="87"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -8055,7 +8088,7 @@
       <c r="U125" s="4"/>
     </row>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="86"/>
+      <c r="A126" s="87"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -8078,7 +8111,7 @@
       <c r="U126" s="4"/>
     </row>
     <row r="127" ht="13.5" customHeight="1">
-      <c r="A127" s="86"/>
+      <c r="A127" s="87"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -8101,7 +8134,7 @@
       <c r="U127" s="4"/>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="86"/>
+      <c r="A128" s="87"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -8124,7 +8157,7 @@
       <c r="U128" s="4"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="86"/>
+      <c r="A129" s="87"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -8147,7 +8180,7 @@
       <c r="U129" s="4"/>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="86"/>
+      <c r="A130" s="87"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -8170,7 +8203,7 @@
       <c r="U130" s="4"/>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="86"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -8193,7 +8226,7 @@
       <c r="U131" s="4"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="86"/>
+      <c r="A132" s="87"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -8216,7 +8249,7 @@
       <c r="U132" s="4"/>
     </row>
     <row r="133" ht="13.5" customHeight="1">
-      <c r="A133" s="86"/>
+      <c r="A133" s="87"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -8239,7 +8272,7 @@
       <c r="U133" s="4"/>
     </row>
     <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="86"/>
+      <c r="A134" s="87"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -8262,7 +8295,7 @@
       <c r="U134" s="4"/>
     </row>
     <row r="135" ht="13.5" customHeight="1">
-      <c r="A135" s="86"/>
+      <c r="A135" s="87"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -8285,7 +8318,7 @@
       <c r="U135" s="4"/>
     </row>
     <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="86"/>
+      <c r="A136" s="87"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -8308,7 +8341,7 @@
       <c r="U136" s="4"/>
     </row>
     <row r="137" ht="13.5" customHeight="1">
-      <c r="A137" s="86"/>
+      <c r="A137" s="87"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -8331,7 +8364,7 @@
       <c r="U137" s="4"/>
     </row>
     <row r="138" ht="13.5" customHeight="1">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -8354,7 +8387,7 @@
       <c r="U138" s="4"/>
     </row>
     <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -8377,7 +8410,7 @@
       <c r="U139" s="4"/>
     </row>
     <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -8400,7 +8433,7 @@
       <c r="U140" s="4"/>
     </row>
     <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -8423,7 +8456,7 @@
       <c r="U141" s="4"/>
     </row>
     <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -8446,7 +8479,7 @@
       <c r="U142" s="4"/>
     </row>
     <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -8469,7 +8502,7 @@
       <c r="U143" s="4"/>
     </row>
     <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -8492,7 +8525,7 @@
       <c r="U144" s="4"/>
     </row>
     <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -8515,7 +8548,7 @@
       <c r="U145" s="4"/>
     </row>
     <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -8538,7 +8571,7 @@
       <c r="U146" s="4"/>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -8561,7 +8594,7 @@
       <c r="U147" s="4"/>
     </row>
     <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -8584,7 +8617,7 @@
       <c r="U148" s="4"/>
     </row>
     <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -8607,7 +8640,7 @@
       <c r="U149" s="4"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -8630,7 +8663,7 @@
       <c r="U150" s="4"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -8653,7 +8686,7 @@
       <c r="U151" s="4"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="86"/>
+      <c r="A152" s="87"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -8676,7 +8709,7 @@
       <c r="U152" s="4"/>
     </row>
     <row r="153" ht="13.5" customHeight="1">
-      <c r="A153" s="86"/>
+      <c r="A153" s="87"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -8699,7 +8732,7 @@
       <c r="U153" s="4"/>
     </row>
     <row r="154" ht="13.5" customHeight="1">
-      <c r="A154" s="86"/>
+      <c r="A154" s="87"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -8722,7 +8755,7 @@
       <c r="U154" s="4"/>
     </row>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="A155" s="86"/>
+      <c r="A155" s="87"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -8745,7 +8778,7 @@
       <c r="U155" s="4"/>
     </row>
     <row r="156" ht="13.5" customHeight="1">
-      <c r="A156" s="86"/>
+      <c r="A156" s="87"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -8768,7 +8801,7 @@
       <c r="U156" s="4"/>
     </row>
     <row r="157" ht="13.5" customHeight="1">
-      <c r="A157" s="86"/>
+      <c r="A157" s="87"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -8791,7 +8824,7 @@
       <c r="U157" s="4"/>
     </row>
     <row r="158" ht="13.5" customHeight="1">
-      <c r="A158" s="86"/>
+      <c r="A158" s="87"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -8814,7 +8847,7 @@
       <c r="U158" s="4"/>
     </row>
     <row r="159" ht="13.5" customHeight="1">
-      <c r="A159" s="86"/>
+      <c r="A159" s="87"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -8837,7 +8870,7 @@
       <c r="U159" s="4"/>
     </row>
     <row r="160" ht="13.5" customHeight="1">
-      <c r="A160" s="86"/>
+      <c r="A160" s="87"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -8860,7 +8893,7 @@
       <c r="U160" s="4"/>
     </row>
     <row r="161" ht="13.5" customHeight="1">
-      <c r="A161" s="86"/>
+      <c r="A161" s="87"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -8883,7 +8916,7 @@
       <c r="U161" s="4"/>
     </row>
     <row r="162" ht="13.5" customHeight="1">
-      <c r="A162" s="86"/>
+      <c r="A162" s="87"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -8906,7 +8939,7 @@
       <c r="U162" s="4"/>
     </row>
     <row r="163" ht="13.5" customHeight="1">
-      <c r="A163" s="86"/>
+      <c r="A163" s="87"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -8929,7 +8962,7 @@
       <c r="U163" s="4"/>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="86"/>
+      <c r="A164" s="87"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -8952,7 +8985,7 @@
       <c r="U164" s="4"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
-      <c r="A165" s="86"/>
+      <c r="A165" s="87"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -8975,7 +9008,7 @@
       <c r="U165" s="4"/>
     </row>
     <row r="166" ht="13.5" customHeight="1">
-      <c r="A166" s="86"/>
+      <c r="A166" s="87"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -8998,7 +9031,7 @@
       <c r="U166" s="4"/>
     </row>
     <row r="167" ht="13.5" customHeight="1">
-      <c r="A167" s="86"/>
+      <c r="A167" s="87"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -9021,7 +9054,7 @@
       <c r="U167" s="4"/>
     </row>
     <row r="168" ht="13.5" customHeight="1">
-      <c r="A168" s="86"/>
+      <c r="A168" s="87"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -9044,7 +9077,7 @@
       <c r="U168" s="4"/>
     </row>
     <row r="169" ht="13.5" customHeight="1">
-      <c r="A169" s="86"/>
+      <c r="A169" s="87"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -9067,7 +9100,7 @@
       <c r="U169" s="4"/>
     </row>
     <row r="170" ht="13.5" customHeight="1">
-      <c r="A170" s="86"/>
+      <c r="A170" s="87"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -9090,7 +9123,7 @@
       <c r="U170" s="4"/>
     </row>
     <row r="171" ht="13.5" customHeight="1">
-      <c r="A171" s="86"/>
+      <c r="A171" s="87"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -9113,7 +9146,7 @@
       <c r="U171" s="4"/>
     </row>
     <row r="172" ht="13.5" customHeight="1">
-      <c r="A172" s="86"/>
+      <c r="A172" s="87"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -9136,7 +9169,7 @@
       <c r="U172" s="4"/>
     </row>
     <row r="173" ht="13.5" customHeight="1">
-      <c r="A173" s="86"/>
+      <c r="A173" s="87"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -9159,7 +9192,7 @@
       <c r="U173" s="4"/>
     </row>
     <row r="174" ht="13.5" customHeight="1">
-      <c r="A174" s="86"/>
+      <c r="A174" s="87"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -9182,7 +9215,7 @@
       <c r="U174" s="4"/>
     </row>
     <row r="175" ht="13.5" customHeight="1">
-      <c r="A175" s="86"/>
+      <c r="A175" s="87"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -9205,7 +9238,7 @@
       <c r="U175" s="4"/>
     </row>
     <row r="176" ht="13.5" customHeight="1">
-      <c r="A176" s="86"/>
+      <c r="A176" s="87"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -9228,7 +9261,7 @@
       <c r="U176" s="4"/>
     </row>
     <row r="177" ht="13.5" customHeight="1">
-      <c r="A177" s="86"/>
+      <c r="A177" s="87"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -9251,7 +9284,7 @@
       <c r="U177" s="4"/>
     </row>
     <row r="178" ht="13.5" customHeight="1">
-      <c r="A178" s="86"/>
+      <c r="A178" s="87"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -9274,7 +9307,7 @@
       <c r="U178" s="4"/>
     </row>
     <row r="179" ht="13.5" customHeight="1">
-      <c r="A179" s="86"/>
+      <c r="A179" s="87"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -9297,7 +9330,7 @@
       <c r="U179" s="4"/>
     </row>
     <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="86"/>
+      <c r="A180" s="87"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -9320,7 +9353,7 @@
       <c r="U180" s="4"/>
     </row>
     <row r="181" ht="13.5" customHeight="1">
-      <c r="A181" s="86"/>
+      <c r="A181" s="87"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -9343,7 +9376,7 @@
       <c r="U181" s="4"/>
     </row>
     <row r="182" ht="13.5" customHeight="1">
-      <c r="A182" s="86"/>
+      <c r="A182" s="87"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -9366,7 +9399,7 @@
       <c r="U182" s="4"/>
     </row>
     <row r="183" ht="13.5" customHeight="1">
-      <c r="A183" s="86"/>
+      <c r="A183" s="87"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -9389,7 +9422,7 @@
       <c r="U183" s="4"/>
     </row>
     <row r="184" ht="13.5" customHeight="1">
-      <c r="A184" s="86"/>
+      <c r="A184" s="87"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -9412,7 +9445,7 @@
       <c r="U184" s="4"/>
     </row>
     <row r="185" ht="13.5" customHeight="1">
-      <c r="A185" s="86"/>
+      <c r="A185" s="87"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -9435,7 +9468,7 @@
       <c r="U185" s="4"/>
     </row>
     <row r="186" ht="13.5" customHeight="1">
-      <c r="A186" s="86"/>
+      <c r="A186" s="87"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -9458,7 +9491,7 @@
       <c r="U186" s="4"/>
     </row>
     <row r="187" ht="13.5" customHeight="1">
-      <c r="A187" s="86"/>
+      <c r="A187" s="87"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -9481,7 +9514,7 @@
       <c r="U187" s="4"/>
     </row>
     <row r="188" ht="13.5" customHeight="1">
-      <c r="A188" s="86"/>
+      <c r="A188" s="87"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -9504,7 +9537,7 @@
       <c r="U188" s="4"/>
     </row>
     <row r="189" ht="13.5" customHeight="1">
-      <c r="A189" s="86"/>
+      <c r="A189" s="87"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -9527,7 +9560,7 @@
       <c r="U189" s="4"/>
     </row>
     <row r="190" ht="13.5" customHeight="1">
-      <c r="A190" s="86"/>
+      <c r="A190" s="87"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -9550,7 +9583,7 @@
       <c r="U190" s="4"/>
     </row>
     <row r="191" ht="13.5" customHeight="1">
-      <c r="A191" s="86"/>
+      <c r="A191" s="87"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -9573,7 +9606,7 @@
       <c r="U191" s="4"/>
     </row>
     <row r="192" ht="13.5" customHeight="1">
-      <c r="A192" s="86"/>
+      <c r="A192" s="87"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -9596,7 +9629,7 @@
       <c r="U192" s="4"/>
     </row>
     <row r="193" ht="13.5" customHeight="1">
-      <c r="A193" s="86"/>
+      <c r="A193" s="87"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -9619,7 +9652,7 @@
       <c r="U193" s="4"/>
     </row>
     <row r="194" ht="13.5" customHeight="1">
-      <c r="A194" s="86"/>
+      <c r="A194" s="87"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -9642,7 +9675,7 @@
       <c r="U194" s="4"/>
     </row>
     <row r="195" ht="13.5" customHeight="1">
-      <c r="A195" s="86"/>
+      <c r="A195" s="87"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -9665,7 +9698,7 @@
       <c r="U195" s="4"/>
     </row>
     <row r="196" ht="13.5" customHeight="1">
-      <c r="A196" s="86"/>
+      <c r="A196" s="87"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -9688,7 +9721,7 @@
       <c r="U196" s="4"/>
     </row>
     <row r="197" ht="13.5" customHeight="1">
-      <c r="A197" s="86"/>
+      <c r="A197" s="87"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -9711,7 +9744,7 @@
       <c r="U197" s="4"/>
     </row>
     <row r="198" ht="13.5" customHeight="1">
-      <c r="A198" s="86"/>
+      <c r="A198" s="87"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -9734,7 +9767,7 @@
       <c r="U198" s="4"/>
     </row>
     <row r="199" ht="13.5" customHeight="1">
-      <c r="A199" s="86"/>
+      <c r="A199" s="87"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -9757,7 +9790,7 @@
       <c r="U199" s="4"/>
     </row>
     <row r="200" ht="13.5" customHeight="1">
-      <c r="A200" s="86"/>
+      <c r="A200" s="87"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -9780,7 +9813,7 @@
       <c r="U200" s="4"/>
     </row>
     <row r="201" ht="13.5" customHeight="1">
-      <c r="A201" s="86"/>
+      <c r="A201" s="87"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -9803,7 +9836,7 @@
       <c r="U201" s="4"/>
     </row>
     <row r="202" ht="13.5" customHeight="1">
-      <c r="A202" s="86"/>
+      <c r="A202" s="87"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -9826,7 +9859,7 @@
       <c r="U202" s="4"/>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="86"/>
+      <c r="A203" s="87"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -9849,7 +9882,7 @@
       <c r="U203" s="4"/>
     </row>
     <row r="204" ht="13.5" customHeight="1">
-      <c r="A204" s="86"/>
+      <c r="A204" s="87"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -9872,7 +9905,7 @@
       <c r="U204" s="4"/>
     </row>
     <row r="205" ht="13.5" customHeight="1">
-      <c r="A205" s="86"/>
+      <c r="A205" s="87"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -9895,7 +9928,7 @@
       <c r="U205" s="4"/>
     </row>
     <row r="206" ht="13.5" customHeight="1">
-      <c r="A206" s="86"/>
+      <c r="A206" s="87"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -9918,7 +9951,7 @@
       <c r="U206" s="4"/>
     </row>
     <row r="207" ht="13.5" customHeight="1">
-      <c r="A207" s="86"/>
+      <c r="A207" s="87"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -9941,7 +9974,7 @@
       <c r="U207" s="4"/>
     </row>
     <row r="208" ht="13.5" customHeight="1">
-      <c r="A208" s="86"/>
+      <c r="A208" s="87"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -9964,7 +9997,7 @@
       <c r="U208" s="4"/>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="86"/>
+      <c r="A209" s="87"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -9987,7 +10020,7 @@
       <c r="U209" s="4"/>
     </row>
     <row r="210" ht="13.5" customHeight="1">
-      <c r="A210" s="86"/>
+      <c r="A210" s="87"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -10010,7 +10043,7 @@
       <c r="U210" s="4"/>
     </row>
     <row r="211" ht="13.5" customHeight="1">
-      <c r="A211" s="86"/>
+      <c r="A211" s="87"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -10033,7 +10066,7 @@
       <c r="U211" s="4"/>
     </row>
     <row r="212" ht="13.5" customHeight="1">
-      <c r="A212" s="86"/>
+      <c r="A212" s="87"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -10056,7 +10089,7 @@
       <c r="U212" s="4"/>
     </row>
     <row r="213" ht="13.5" customHeight="1">
-      <c r="A213" s="86"/>
+      <c r="A213" s="87"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -10079,7 +10112,7 @@
       <c r="U213" s="4"/>
     </row>
     <row r="214" ht="13.5" customHeight="1">
-      <c r="A214" s="86"/>
+      <c r="A214" s="87"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -10102,7 +10135,7 @@
       <c r="U214" s="4"/>
     </row>
     <row r="215" ht="13.5" customHeight="1">
-      <c r="A215" s="86"/>
+      <c r="A215" s="87"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -10125,7 +10158,7 @@
       <c r="U215" s="4"/>
     </row>
     <row r="216" ht="13.5" customHeight="1">
-      <c r="A216" s="86"/>
+      <c r="A216" s="87"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -10148,7 +10181,7 @@
       <c r="U216" s="4"/>
     </row>
     <row r="217" ht="13.5" customHeight="1">
-      <c r="A217" s="86"/>
+      <c r="A217" s="87"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -10171,7 +10204,7 @@
       <c r="U217" s="4"/>
     </row>
     <row r="218" ht="13.5" customHeight="1">
-      <c r="A218" s="86"/>
+      <c r="A218" s="87"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -10194,7 +10227,7 @@
       <c r="U218" s="4"/>
     </row>
     <row r="219" ht="13.5" customHeight="1">
-      <c r="A219" s="86"/>
+      <c r="A219" s="87"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -10217,7 +10250,7 @@
       <c r="U219" s="4"/>
     </row>
     <row r="220" ht="13.5" customHeight="1">
-      <c r="A220" s="86"/>
+      <c r="A220" s="87"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
